--- a/frontend-cemos/public/assets/content/direito/1-ema-135/script/fc2.xlsx
+++ b/frontend-cemos/public/assets/content/direito/1-ema-135/script/fc2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Qual a principal característica que define um "navio de Estado" no contexto de serviços governamentais?</t>
+          <t>A CNUDM  consagra  a  _____________  dos  navios  de  Estado  utilizados  para  atividades  _____________.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Executam serviços governamentais e não comerciais (serviço público de natureza civil), incluindo de representação.</t>
+          <t>"imunidade" e "não comerciais"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -517,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -529,12 +529,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>O que significa o princípio da extraterritorialidade aplicado a um navio de guerra?</t>
+          <t>Qual a principal característica que define um "navio de Estado" no contexto de serviços governamentais?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Os atos e fatos jurídicos a bordo estão sujeitos ao ordenamento jurídico do Estado do seu pavilhão.</t>
+          <t>Executam serviços governamentais e não comerciais (serviço público de natureza civil, entre eles os navios alfandegários, navios-faróis, navios de saúde, etc.), também são considerados navios de Estado aqueles postos a serviço de soberanos, Chefes de Estado ou representações diplomáticas.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -545,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -557,23 +557,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Navios de guerra estão sujeitos a sequestro ou detenção em águas internacionais ou nacionais?</t>
+          <t>O que significa o princípio da extraterritorialidade aplicado a um navio de guerra?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Não, eles são imunes a sequestro, arresto ou qualquer tipo de detenção, seja em águas internacionais ou nacionais.</t>
+          <t>Os atos e fatos jurídicos a bordo estão sujeitos ao ordenamento jurídico do Estado do seu pavilhão.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág 30</t>
+          <t>Pág 29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Quais autoridades estrangeiras podem entrar a bordo de um navio de guerra?</t>
+          <t>Navios de guerra estão sujeitos a sequestro ou detenção em águas internacionais ou nacionais?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Somente com a permissão do Comandante do navio.</t>
+          <t>Não, eles são imunes a sequestro, arresto ou qualquer tipo de detenção, seja em águas internacionais ou nacionais.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -601,7 +601,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -613,12 +613,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>O Governo brasileiro reconhece as isenções e regalias de um navio de guerra que esteja sendo empregado em atividade comercial?</t>
+          <t>Quais autoridades estrangeiras podem entrar a bordo de um navio de guerra?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Não, conforme a Regra nº 15 do Decreto nº 56.515/1965.</t>
+          <t>Somente com a permissão do Comandante do navio.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -629,7 +629,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -641,23 +641,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Qual é o "temperamento" (limitação) imposto pela CNUDM à imunidade dos navios de guerra?</t>
+          <t>De acordo com o Decreto n º 56.515/1965 (Regra nº 13), quais são as três categorias de embarcações que o Governo brasileiro considera como "navio de guerra" para fins de visita?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A responsabilidade do Estado de bandeira por eventuais danos causados em violação às leis locais ou normas do DI.</t>
+          <t>O de  combate  **efetivamente**  incorporado  à  Força  Armada  do  Estado  **cuja bandeira arvorar**; **auxiliar**, destinado exclusivamente ao serviço da Marinha de Guerra e a ela incorporado, com **tripulação militar**; e o **navio mercante** incorporado, **adaptado ao serviço e comandado por oficial da Marinha de Guerra**.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág 31</t>
+          <t>Pág 30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -669,23 +669,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Navios de guerra de propulsão nuclear, ao exercerem a passagem inocente, devem observar quais medidas especiais?</t>
+          <t>Apesar de tratar apenas de aeronaves civis, como a Convenção de Chicago define as aeronaves utilizadas em serviços militares, alfandegários ou policiais?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Devem ter a bordo os documentos e observar as medidas especiais de precaução estabelecidas nos acordos internacionais.</t>
+          <t>Aeronaves de "propriedade do governo".</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág 31</t>
+          <t>Pág 32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -697,23 +697,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>De acordo com a Lei nº 7.542/1986, quando um bem afundado (inclusive um navio de guerra ou aeronave militar) em AJB passa para o domínio da União?</t>
+          <t>Segundo o Decreto n º 56.515/1965 (Regra nº 14), qual é a notificação exigida para que um navio mercante adaptado para o serviço de guerra seja reconhecido como navio de guerra pelo Brasil?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Se, decorridos cinco anos do afundamento, o responsável não tiver solicitado licença para sua remoção, exploração ou demolição.</t>
+          <t>O Governo do Estado deve notificar o Governo brasileiro, via diplomática, declarando que o navio não continuará a exercer atos de comércio e que é comandado por Oficial de sua marinha de guerra.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pág 31</t>
+          <t>Pág 30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -725,23 +725,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Como o Código Brasileiro de Aeronáutica (CBA) define aeronave militar?</t>
+          <t>Qual é a consequência, segundo a Regra nº 15 do Decreto nº 56.515/1965, se um navio de guerra for empregado em atividade comercial?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aquela integrante das Forças Armadas de uma nação.</t>
+          <t>O Governo brasileiro não reconhece o gozo das isenções e regalias normalmente concedidas a este tipo de navio.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág 32</t>
+          <t>Pág 30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -753,23 +753,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>O que são aeronaves públicas, segundo o CBA?</t>
+          <t>O Direito Internacional NÃO prevê que um navio de guerra estrangeiro possa ser abordado por outro do Estado costeiro para fins de _____________ e _____________.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>As que se destinam ao serviço do poder público, inclusive as requisitadas na forma da lei.</t>
+          <t>"busca" e "inspeção".</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pág 32</t>
+          <t>Pág 30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -781,23 +781,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Analogamente aos navios de guerra, que privilégio as aeronaves militares e públicas gozam?</t>
+          <t>O Governo brasileiro reconhece as isenções e regalias de um navio de guerra que esteja sendo empregado em atividade comercial?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Gozam de imunidade, sendo isentas de busca e inspeção por parte de autoridade pertencente a Estado estrangeiro.</t>
+          <t>Não, conforme a Regra nº 15 do Decreto nº 56.515/1965.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pág 32</t>
+          <t>Pág 30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -809,23 +809,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Qual é o requisito essencial para o acesso de navios e aeronaves estrangeiras a águas interiores?</t>
+          <t>Qual é o "temperamento" (limitação) imposto pela CNUDM à imunidade dos navios de guerra?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Exige a permissão do Estado costeiro.</t>
+          <t>A responsabilidade do Estado de bandeira por eventuais danos causados em violação às leis locais ou normas do DI.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pág 33</t>
+          <t>Pág 31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -837,23 +837,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Em que situação, em águas interiores, é aplicado o conceito de direito de "passagem inocente"?</t>
+          <t>Navios de guerra de propulsão nuclear, ao exercerem a passagem inocente, devem observar quais medidas especiais?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Quando linhas de base retas encerram, como águas interiores, águas que anteriormente se constituíam MT ou alto-mar.</t>
+          <t>Devem ter a bordo os documentos e observar as medidas especiais de precaução estabelecidas nos acordos internacionais.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pág 33</t>
+          <t>Pág 31</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -865,23 +865,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Qual a condição fundamental para que a passagem no Mar Territorial seja considerada inocente?</t>
+          <t>Os procedimentos específicos a serem seguidos quando da visita de navios de guerra de propulsão nuclear a portos brasileiros constam de instrução permanente do _____________.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Deverá ser contínua e rápida; sem prejuízo à paz, à ordem e à segurança do Estado costeiro.</t>
+          <t>Comando de Operações Navais (ComOpNav).</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pág 33</t>
+          <t>Pág 31</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -893,23 +893,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>O Decreto nº 56.515/1965 impõe qual limitação ao direito de passagem inocente de navios de guerra estrangeiros no MT brasileiro?</t>
+          <t>De acordo com a Lei nº 7.542/1986, quando um bem afundado (inclusive um navio de guerra ou aeronave militar) em AJB passa para o domínio da União?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Determina que devem notificar previamente o governo brasileiro dessa intenção.</t>
+          <t>Se, decorridos cinco anos do afundamento, o responsável não tiver solicitado licença para sua remoção, exploração ou demolição.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pág 34</t>
+          <t>Pág 31</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -921,23 +921,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>O direito de passagem inocente no Mar Territorial inclui o direito de sobrevoo?</t>
+          <t>O art. 303 da CNUDM admite que a remoção dos objetos de caráter _____________ e _____________ na Zona Contígua (ZC) de um Estado costeiro constitui infração cometida no seu território ou no seu MT, das leis e regulamentos previstos no art. 33.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Não.</t>
+          <t>"arqueológico" e "histórico".</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pág 34</t>
+          <t>Pág 31</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -949,23 +949,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cite três atividades que descaracterizam a passagem inocente.</t>
+          <t>Como o Código Brasileiro de Aeronáutica (CBA) define aeronave militar?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>(1) Qualquer ameaça ou uso da força contra a soberania; (2) Qualquer atividade de pesca, (3) Qualquer ato intencional e grave de poluição contrário à CNUDM, entre outros.</t>
+          <t>Aquela integrante das Forças Armadas de uma nação.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pág 34</t>
+          <t>Pág 32</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -977,23 +977,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Qual é a regra obrigatória da CNUDM para submarinos e outros veículos submersíveis no Mar Territorial (MT)?</t>
+          <t>O que são aeronaves públicas, segundo o CBA?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Devem navegar à superfície e arvorar a sua bandeira.</t>
+          <t>As que se destinam ao serviço do poder público, inclusive as requisitadas na forma da lei.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pág 35</t>
+          <t>Pág 32</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1005,23 +1005,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cite um dos objetivos pelo qual o Estado costeiro pode promulgar normas relativas ao direito da passagem inocente.</t>
+          <t>Analogamente aos navios de guerra, que privilégio as aeronaves militares e públicas gozam?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Segurança da navegação e a regulamentação do tráfego marítimo.</t>
+          <t>Gozam de imunidade, sendo isentas de busca e inspeção por parte de autoridade pertencente a Estado estrangeiro.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pág 35</t>
+          <t>Pág 32</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1033,23 +1033,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Qual é uma das proibições impostas às normas do Estado costeiro relativas à passagem inocente?</t>
+          <t>Qual é o requisito essencial para o acesso de navios e aeronaves estrangeiras a águas interiores?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Não podem encerrar qualquer tipo de discriminação de direito ou de fato contra navios de determinado Estado.</t>
+          <t>Exige a permissão do Estado costeiro.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pág 35</t>
+          <t>Pág 33</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1061,23 +1061,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>O Estado costeiro pode suspender temporariamente o direito de passagem inocente no MT?</t>
+          <t>Em que situação, em águas interiores, é aplicado o conceito de direito de "passagem inocente"?</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Sim, se a medida for indispensável para proteger sua segurança. A proibição só produzirá efeito se for devidamente tornada pública.</t>
+          <t>Quando linhas de base retas encerram, como águas interiores, águas que anteriormente se constituíam MT ou alto-mar.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pág 36</t>
+          <t>Pág 33</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1089,23 +1089,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Em caso de necessidade de prestar auxílio, é permitida a entrada de navios (e, excepcionalmente, aeronaves) no MT sem permissão imediata?</t>
+          <t>A CNUDM estabelece o significado de passagem inocente, aplicável à navegação pelo __________________ quando executada com o propósito de atravessar esse mar sem penetrar nas águas interiores ou fazer escala em um ancoradouro ou instalação portuária situada fora das águas interiores; ou dirigir-se para as ____________________, ou delas sair, ou fazer escala num desses ancoradouros ou instalações portuárias.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Sim, desde que o local do acidente seja razoavelmente conhecido.</t>
+          <t>"Mar Territorial" e "Águas interiores"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pág 36</t>
+          <t>Pág 33</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1117,23 +1117,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Para a condução de buscas (SAR) para localizar a posição de acidentes marítimos no MT ou espaço aéreo sobrejacente, o que é exigido?</t>
+          <t>A passagem deverá ser _____________ e _____________. Ela compreende, ainda, o _____________ e o _____________, quando estes constituírem incidentes comuns de navegação ou tenham sido impostos por motivo de força maior ou dificuldade grave, ou tenham por fim prestar auxílio (não busca) a pessoas, navios ou aeronaves em perigo ou em dificuldade grave.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Requer a autorização do Estado costeiro.</t>
+          <t>"contínua", "rápida", "parar" e "fundear"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pág 36</t>
+          <t>Pág 33</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1145,23 +1145,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Qual é o direito de passagem garantido a navios e aeronaves, civis ou militares, em estreitos que asseguram a comunicação entre alto-mar ou ZEE?</t>
+          <t>Qual a condição fundamental para que a passagem no Mar Territorial seja considerada inocente?</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Direito de passagem em trânsito.</t>
+          <t>Deverá ser contínua e rápida; sem prejuízo à paz, à ordem e à segurança do Estado costeiro.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pág 37</t>
+          <t>Pág 33</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1173,23 +1173,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>O direito de passagem em trânsito através de estreitos internacionais pode ser impedido ou suspenso pelos Estados ribeirinhos em tempo de paz?</t>
+          <t>Navios de guerra estrangeiros, em visita a portos e às águas territoriais brasileiras, em tempo de paz, devem _______________________________ o governo brasileiro dessa intenção, o que limita esse direito.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Não.</t>
+          <t>"notificar previamente"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pág 37</t>
+          <t>Pág 34</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1201,23 +1201,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Qual organização internacional os Estados ribeirinhos devem consultar ao designar rotas marítimas em estreitos?</t>
+          <t>A passagem é inocente na medida em que não seja prejudicial à ____________, à _______________ e à ____________ do Estado costeiro. A passagem inocente não inclui o _________________.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A Organização Marítima Internacional (IMO).</t>
+          <t>"à paz, à ordem e à segurança" e "direito de sobrevoo"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pág 37</t>
+          <t>Pág 34</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1229,23 +1229,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Qual regime de passagem se aplica a estreitos que interligam alto-mar ou ZEE com o Mar Territorial (MT) de um Estado estrangeiro?</t>
+          <t>O Decreto nº 56.515/1965 impõe qual limitação ao direito de passagem inocente de navios de guerra estrangeiros no MT brasileiro?</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>O regime de "passagem inocente".</t>
+          <t>Determina que devem notificar previamente o governo brasileiro dessa intenção.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Pág 38</t>
+          <t>Pág 34</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1257,23 +1257,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>O que são águas arquipelágicas?</t>
+          <t>O direito de passagem inocente no Mar Territorial inclui o direito de sobrevoo?</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>São aquelas encerradas pelas linhas de base de um Estado arquipélago.</t>
+          <t>Não.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Pág 38</t>
+          <t>Pág 34</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1285,23 +1285,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Quais tipos de navios e aeronaves gozam do direito de passagem pelas rotas marítimas arquipelágicas?</t>
+          <t>Cite três atividades que descaracterizam a passagem inocente.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Todos os navios e aeronaves, incluídos os navios de guerra e as aeronaves militares.</t>
+          <t>(1) Qualquer ameaça ou uso da força contra a soberania; (2) Qualquer atividade de pesca, (3) Qualquer ato intencional e grave de poluição contrário à CNUDM, entre outros.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pág 38</t>
+          <t>Pág 34</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1313,23 +1313,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Em uma rota marítima arquipelágica designada, qual a distância máxima que navios e aeronaves podem se afastar das linhas axiais?</t>
+          <t>Qual é a regra obrigatória da CNUDM para submarinos e outros veículos submersíveis no Mar Territorial (MT)?</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Não podem afastar-se mais de 25 milhas náuticas para cada lado das linhas axiais.</t>
+          <t>Devem navegar à superfície e arvorar a sua bandeira.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Pág 39</t>
+          <t>Pág 35</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1341,23 +1341,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fora das rotas marítimas arquipelágicas designadas, existe direito de sobrevoo no espaço aéreo sobrejacente?</t>
+          <t>Cite um dos objetivos pelo qual o Estado costeiro pode promulgar normas relativas ao direito da passagem inocente.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Não existe direito de sobrevoo.</t>
+          <t>Segurança da navegação e a regulamentação do tráfego marítimo.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Pág 39</t>
+          <t>Pág 35</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1369,23 +1369,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>O que submarinos devem fazer ao exercer a passagem inocente fora das rotas marítimas arquipelágicas?</t>
+          <t>O Estado costeiro pode, quando necessário à segurança da navegação, exigir dos navios estrangeiros que exercem o direito de passagem inocente pelo seu MT que utilizem as _________________ e os _________________ estabelecidos para regular a passagem de navios.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Devem navegar na superfície e arvorar seu pavilhão.</t>
+          <t>"rotas marítimas" e "esquemas de separação de tráfego".</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Pág 39</t>
+          <t>Pág 35</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1397,23 +1397,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Na Zona Contígua (ZC), quais Estados gozam da liberdade de navegação e sobrevoo?</t>
+          <t>Qual é uma das proibições impostas às normas do Estado costeiro relativas à passagem inocente?</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Todos os Estados, incluindo navios de guerra e aeronaves militares.</t>
+          <t>Não podem encerrar qualquer tipo de discriminação de direito ou de fato contra navios de determinado Estado.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Pág 40</t>
+          <t>Pág 35</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1425,23 +1425,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Para quais fins o Estado costeiro pode tomar medidas de fiscalização na Zona Contígua (ZC)?</t>
+          <t>O Estado costeiro pode suspender temporariamente o direito de passagem inocente no MT?</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Para evitar infrações às leis aduaneiras, fiscais, de imigração ou sanitários cometidas em seu território ou MT.</t>
+          <t>Sim, se a medida for indispensável para proteger sua segurança. A proibição só produzirá efeito se for devidamente tornada pública.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Pág 40</t>
+          <t>Pág 36</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1453,23 +1453,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Em relação à Zona Econômica Exclusiva (ZEE) brasileira, sob qual condição exercícios ou manobras militares com uso de armas podem ser conduzidos?</t>
+          <t>Em caso de necessidade de prestar auxílio, é permitida a entrada de navios (e, excepcionalmente, aeronaves) no MT sem permissão imediata?</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Só podem ser conduzidas com autorização do Governo brasileiro.</t>
+          <t>Sim, desde que o local do acidente seja razoavelmente conhecido.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Pág 40</t>
+          <t>Pág 36</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1481,23 +1481,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Em alto-mar, navios de guerra e aeronaves militares gozam de qual grau de liberdade de operação?</t>
+          <t>Para a condução de buscas (SAR) para localizar a posição de acidentes marítimos no MT ou espaço aéreo sobrejacente, o que é exigido?</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Completa liberdade de navegação e operação.</t>
+          <t>Requer a autorização do Estado costeiro.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Pág 41</t>
+          <t>Pág 36</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1509,23 +1509,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>O que o Estado executor de manobras perigosas deve publicar para alertar a navegação?</t>
+          <t>Qual é o direito de passagem garantido a navios e aeronaves, civis ou militares, em estreitos que asseguram a comunicação entre alto-mar ou ZEE?</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>As áreas e períodos dessas atividades na forma de “AVISO AOS NAVEGANTES” ou “AVISO AOS AERONAVEGANTES”.</t>
+          <t>Direito de passagem em trânsito.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Pág 41</t>
+          <t>Pág 37</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1537,23 +1537,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Navios e aeronaves de outros Estados são proibidos de sobrevoar áreas perigosas à navegação divulgadas?</t>
+          <t>O direito de passagem em trânsito através de estreitos internacionais pode ser impedido ou suspenso pelos Estados ribeirinhos em tempo de paz?</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Não são proibidos, mas são obrigados a evitar interferir nas atividades em andamento.</t>
+          <t>Não.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Pág 41</t>
+          <t>Pág 37</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1565,23 +1565,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>O Tratado de Proibição de Uso de Armas Nucleares da América Latina (Tratado de Tlatelolco) é um exemplo de que tipo de zona?</t>
+          <t>Qual organização internacional os Estados ribeirinhos devem consultar ao designar rotas marítimas em estreitos?</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Uma zona livre de armamento nuclear.</t>
+          <t>A Organização Marítima Internacional (IMO).</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Pág 42</t>
+          <t>Pág 37</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1593,23 +1593,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>De acordo com o Direito Internacional (DI), sobre quais áreas o Estado tem soberania completa e exclusiva no espaço aéreo sobrejacente?</t>
+          <t>Qual regime de passagem se aplica a estreitos que interligam alto-mar ou ZEE com o Mar Territorial (MT) de um Estado estrangeiro?</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Seu território, águas interiores, Mar Territorial (MT) e, no caso de Estado arquipélago, sobre as águas arquipelágicas.</t>
+          <t>O regime de "passagem inocente".</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Pág 42</t>
+          <t>Pág 38</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1621,23 +1621,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Existe o direito de passagem inocente aplicado à aeronave em voo no espaço aéreo sobrejacente ao Mar Territorial (MT) ou águas arquipelágicas?</t>
+          <t>Em quais situações de estreitos utilizados para navegação internacional se aplica o **regime de "passagem inocente"**, e qual regra crucial se aplica a esse direito nesses locais?</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Não existe o direito de passagem inocente aplicado à aeronave nessas áreas.</t>
+          <t>O regime de passagem inocente aplica-se aos estreitos que **interliguem uma parte de alto-mar ou uma Zona Econômica Exclusiva (ZEE) com o Mar Territorial (MT) de um Estado estrangeiro**. Nesses estreitos, **não haverá suspensão da passagem inocente**. Ex: Estreito de Tiran entre Arábia Saudita e o Egito.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Pág 42</t>
+          <t>Pág 38</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1649,23 +1649,23 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Qual direito de passagem as aeronaves, inclusive militares, gozam sobre o espaço aéreo acima de estreitos internacionais que ligam partes da ZEE ou alto-mar?</t>
+          <t>O que são águas arquipelágicas?</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Gozam do direito de passagem em trânsito sem impedimentos.</t>
+          <t>São aquelas encerradas pelas linhas de base de um Estado arquipélago.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Pág 43</t>
+          <t>Pág 38</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1677,23 +1677,23 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>O direito de passagem em trânsito exercido por aeronaves sobre o estreito internacional pode ser impedido ou suspenso em tempo de paz?</t>
+          <t>Quais tipos de navios e aeronaves gozam do direito de passagem pelas rotas marítimas arquipelágicas?</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Não pode ser impedido ou suspenso em tempo de paz.</t>
+          <t>Todos os navios e aeronaves, incluídos os navios de guerra e as aeronaves militares.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Pág 43</t>
+          <t>Pág 38</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1705,23 +1705,23 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A passagem em trânsito de aeronaves pelo espaço aéreo acima de rotas marítimas arquipelágicas tem qual natureza?</t>
+          <t>Em uma rota marítima arquipelágica designada, qual a distância máxima que navios e aeronaves podem se afastar das linhas axiais?</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>É um direito de passagem contínua e rápida, essencialmente idêntico à passagem em trânsito acima de estreitos internacionais.</t>
+          <t>Não podem afastar-se mais de 25 milhas náuticas para cada lado das linhas axiais.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Pág 43</t>
+          <t>Pág 39</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1733,23 +1733,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>O que as aeronaves militares podem realizar livremente no espaço aéreo internacional?</t>
+          <t>Fora das rotas marítimas arquipelágicas designadas, existe direito de sobrevoo no espaço aéreo sobrejacente?</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Podem se engajar em operações aéreas, realizando exercícios de tiro, testes de munição, operações de esclarecimento e coleta de inteligência.</t>
+          <t>Não existe direito de sobrevoo.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Pág 44</t>
+          <t>Pág 39</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1761,23 +1761,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>A que tipo de aeronaves se aplica exclusivamente o Tratado multilateral da Convenção de Aviação Civil de 1944 (Convenção de Chicago)?</t>
+          <t>O que submarinos devem fazer ao exercer a passagem inocente fora das rotas marítimas arquipelágicas?</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Exclusivamente às aeronaves civis.</t>
+          <t>Devem navegar na superfície e arvorar seu pavilhão.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Pág 44</t>
+          <t>Pág 39</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1789,23 +1789,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Qual a exigência do Brasil para aeronaves militares estrangeiras no espaço aéreo internacional dentro de suas Regiões de Informação de Voo (FIR)?</t>
+          <t>Na Zona Contígua (ZC), quais Estados gozam da liberdade de navegação e sobrevoo?</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Exige que cumpram os procedimentos da FIR, independentemente da utilização dos serviços ou da intenção de entrar no espaço aéreo nacional.</t>
+          <t>Todos os Estados, incluindo navios de guerra e aeronaves militares.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Pág 44</t>
+          <t>Pág 40</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1817,23 +1817,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>O Brasil reconhece o direito de o Estado costeiro aplicar procedimentos de identificação na sua Zona de Identificação de Defesa Aérea sobre aeronaves brasileiras que não tenham a intenção de entrar no espaço aéreo nacional desse Estado?</t>
+          <t>Para quais fins o Estado costeiro pode tomar medidas de fiscalização na Zona Contígua (ZC)?</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Não, o Brasil não reconhece esse direito, a menos que tenha especificamente concordado em fazê-lo.</t>
+          <t>Para evitar infrações às leis aduaneiras, fiscais, de imigração ou sanitários cometidas em seu território ou MT.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Pág 45</t>
+          <t>Pág 40</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1845,23 +1845,23 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Qual direito inerente um Estado está exercendo ao repelir a invasão de seu espaço aéreo por uma aeronave militar estrangeira?</t>
+          <t>Em relação à Zona Econômica Exclusiva (ZEE) brasileira, sob qual condição exercícios ou manobras militares com uso de armas podem ser conduzidos?</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>O direito inerente de legítima defesa.</t>
+          <t>Só podem ser conduzidas com autorização do Governo brasileiro.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Pág 45</t>
+          <t>Pág 40</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1873,23 +1873,23 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>No caso de emergência ou erro de navegação sem permissão, o que o costume internacional estipula que pode ser ordenado a uma aeronave estrangeira em espaço aéreo nacional?</t>
+          <t>Em alto-mar, navios de guerra e aeronaves militares gozam de qual grau de liberdade de operação?</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Pode ser ordenada a guinar para dele sair ou aterrizar.</t>
+          <t>Completa liberdade de navegação e operação.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Pág 45</t>
+          <t>Pág 41</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1901,23 +1901,23 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Qual é o principal conjunto de regras de segurança da navegação aplicável a navios de superfície e submarinos no alto-mar, na ZEE e na ZC?</t>
+          <t>O que o Estado executor de manobras perigosas deve publicar para alertar a navegação?</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>O Regulamento Internacional para Evitar Abalroamento no Mar (RIPEAM), de 1972.</t>
+          <t>As áreas e períodos dessas atividades na forma de “AVISO AOS NAVEGANTES” ou “AVISO AOS AERONAVEGANTES”.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Pág 46</t>
+          <t>Pág 41</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1929,23 +1929,23 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Em quais áreas sujeitas à soberania o RIPEAM também se aplica, exceto se o Estado costeiro estabelecer regras distintas?</t>
+          <t>Navios e aeronaves de outros Estados são proibidos de sobrevoar áreas perigosas à navegação divulgadas?</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>No Mar Territorial (MT), águas arquipelágicas e águas interiores.</t>
+          <t>Não são proibidos, mas são obrigados a evitar interferir nas atividades em andamento.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Pág 46</t>
+          <t>Pág 41</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1957,23 +1957,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Onde são normalmente publicadas as regras especiais de navegação adotadas pelos Estados costeiros em suas águas soberanas?</t>
+          <t>O Tratado de Proibição de Uso de Armas Nucleares da América Latina (Tratado de Tlatelolco) é um exemplo de que tipo de zona?</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Nos AVISOS AOS NAVEGANTES (NOTICE TO MARINERS) ou constam das cartas náuticas.</t>
+          <t>Uma zona livre de armamento nuclear.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Pág 46</t>
+          <t>Pág 42</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -1985,23 +1985,23 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>As regras de navegação no espaço aéreo internacional aplicáveis às aeronaves civis são as previstas em qual convenção?</t>
+          <t>De acordo com o Direito Internacional (DI), sobre quais áreas o Estado tem soberania completa e exclusiva no espaço aéreo sobrejacente?</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Convenção de Chicago de 1944.</t>
+          <t>Seu território, águas interiores, Mar Territorial (MT) e, no caso de Estado arquipélago, sobre as águas arquipelágicas.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Pág 47</t>
+          <t>Pág 42</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -2013,23 +2013,23 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Existe uma definição internacionalmente aceita sobre o limite inferior do espaço exterior?</t>
+          <t>Existe o direito de passagem inocente aplicado à aeronave em voo no espaço aéreo sobrejacente ao Mar Territorial (MT) ou águas arquipelágicas?</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Não existe uma definição internacionalmente aceita.</t>
+          <t>Não existe o direito de passagem inocente aplicado à aeronave nessas áreas.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Pág 47</t>
+          <t>Pág 42</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -2041,23 +2041,23 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>De acordo com o DI, o espaço exterior pode ser apropriado por algum Estado?</t>
+          <t>Qual direito de passagem as aeronaves, inclusive militares, gozam sobre o espaço aéreo acima de estreitos internacionais que ligam partes da ZEE ou alto-mar?</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Não, o espaço exterior não é sujeito a reclamações de soberania e não pode ser apropriado por nenhum Estado.</t>
+          <t>Gozam do direito de passagem em trânsito sem impedimentos.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Pág 47</t>
+          <t>Pág 43</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -2069,23 +2069,23 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>De acordo com o DI, o que é proibido nos corpos celestes naturais em termos de atividades militares?</t>
+          <t>O direito de passagem em trânsito exercido por aeronaves sobre o estreito internacional pode ser impedido ou suspenso em tempo de paz?</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Levantar bases e instalações militares, e conduzir manobras ou testes com armas.</t>
+          <t>Não pode ser impedido ou suspenso em tempo de paz.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Pág 48</t>
+          <t>Pág 43</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -2097,23 +2097,23 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>O que a legislação dos Estados Unidos (U.S. Commercial Space Launch Competitiveness Act de 2015) admite em relação aos recursos de corpos celestes?</t>
+          <t>A passagem em trânsito de aeronaves pelo espaço aéreo acima de rotas marítimas arquipelágicas tem qual natureza?</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Admite que os recursos de corpos celestes estejam sujeitos a direito de propriedade.</t>
+          <t>É um direito de passagem contínua e rápida, essencialmente idêntico à passagem em trânsito acima de estreitos internacionais.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Pág 48</t>
+          <t>Pág 43</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -2125,23 +2125,23 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cite um dos quatro principais acordos multilaterais que contêm os princípios legais relativos às atividades desenvolvidas no espaço exterior.</t>
+          <t>O que as aeronaves militares podem realizar livremente no espaço aéreo internacional?</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>O Tratado do Espaço Exterior, de 1967 (ou Acordo de Retorno e Resgate de Astronautas, de 1968, ou Tratado de Responsabilidade, de 1972, ou Tratado de Registro de Objetos Espaciais, de 1975).</t>
+          <t>Podem se engajar em operações aéreas, realizando exercícios de tiro, testes de munição, operações de esclarecimento e coleta de inteligência.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Pág 48</t>
+          <t>Pág 44</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -2153,23 +2153,23 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Um navio de guerra está sujeito às normas de controle de tráfego, controle de alijamento de dejetos, sanitários e de quarentena do Estado costeiro. Os respectivos agentes podem subir a bordo mesmo sem a permissão do Comandante?</t>
+          <t>Qual é a distinção estabelecida pelo Código Brasileiro de Aeronáutica (Lei nº 7.565/1986) ao definir aeronaves civis, e como ele categoriza as aeronaves públicas e privadas?</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Não, mesmo quando em trânsito por mares territoriais alheios ou ancorados em portos estrangeiros.</t>
+          <t>O Código Brasileiro de Aeronáutica estabelece que aeronaves civis podem ser públicas ou privadas. As aeronaves públicas são aquelas que se destinam ao serviço do poder público, incluindo as requisitadas na forma da lei. As aeronaves privadas são todas as demais, exceto as militares.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Pág 42</t>
+          <t>Pág 32</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -2181,23 +2181,23 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Em que se baseia o fundamento da imunidade do navio de guerra?</t>
+          <t>Qual a exigência do Brasil para aeronaves militares estrangeiras no espaço aéreo internacional dentro de suas Regiões de Informação de Voo (FIR)?</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Seu caráter representativo e respeito mútuo entre Estados.</t>
+          <t>Exige que cumpram os procedimentos da FIR, independentemente da utilização dos serviços ou da intenção de entrar no espaço aéreo nacional.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Pág 29</t>
+          <t>Pág 44</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -2209,23 +2209,23 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Quais são os temperamentos ou restrições à imunidade dos navios de guerra?</t>
+          <t>O Brasil reconhece o direito de o Estado costeiro aplicar procedimentos de identificação na sua Zona de Identificação de Defesa Aérea sobre aeronaves brasileiras que não tenham a intenção de entrar no espaço aéreo nacional desse Estado?</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Necessidade da observância de leis e regulamentos impostos pelo Estado costeiro para a passagem inocente no mar territorial; Responsabilidade por danos causados em violação à legislação vigente.</t>
+          <t>Não, o Brasil não reconhece esse direito, a menos que tenha especificamente concordado em fazê-lo.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Pág 30</t>
+          <t>Pág 45</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -2237,23 +2237,23 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Em caso de Descumprimento das normas de DI por parte de um navio de guerra de outro Estado, quais as medidas que podem ser tomadas?</t>
+          <t>Qual direito inerente um Estado está exercendo ao repelir a invasão de seu espaço aéreo por uma aeronave militar estrangeira?</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Emissão de protesto diplomático ou de ordem, para que se retire imediatamente do Mar Territorial do Estado costeiro.</t>
+          <t>O direito inerente de legítima defesa.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Pág 30</t>
+          <t>Pág 45</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -2265,23 +2265,23 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Navios de Estado também gozam de imunidade e extraterritorialidade?</t>
+          <t>No caso de emergência ou erro de navegação sem permissão, o que o costume internacional estipula que pode ser ordenado a uma aeronave estrangeira em espaço aéreo nacional?</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sim.</t>
+          <t>Pode ser ordenada a guinar para dele sair ou aterrizar.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Pág 29</t>
+          <t>Pág 45</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -2293,23 +2293,23 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Nenhum agente de autoridade estrangeira pode subir a bordo sem o consentimento do Comandante, porém caso ele não tenha como comprovar o cumprimento das normas alfandegárias, de imigração ou de quarentena, cite a medida que o Estado pode tomar.</t>
+          <t>Qual é o principal conjunto de regras de segurança da navegação aplicável a navios de superfície e submarinos no alto-mar, na ZEE e na ZC?</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Determinar deixar imediatamente o território e o espaço aéreo nacionais</t>
+          <t>O Regulamento Internacional para Evitar Abalroamento no Mar (RIPEAM), de 1972.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Pág 32</t>
+          <t>Pág 46</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -2321,23 +2321,23 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Navios de Guerra e todas as aeronaves devem solicitar autorização com antecedência para a entrada em águas interiores e espaço aéreo sobrejacente. Cite as duas exceções.</t>
+          <t>Em quais áreas sujeitas à soberania o RIPEAM também se aplica, exceto se o Estado costeiro estabelecer regras distintas?</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Situação de emergência ou força maior; Quando Linhas de Base retas encerram, como águas interiores, águas que antes se constituíam Mar Territorial ou alto-mar. Nesse caso, será aplicado o direito de Passagem Inocente.</t>
+          <t>No Mar Territorial (MT), águas arquipelágicas e águas interiores.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Pág 42</t>
+          <t>Pág 46</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -2349,23 +2349,23 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Defina Passagem Inocente.</t>
+          <t>Onde são normalmente publicadas as regras especiais de navegação adotadas pelos Estados costeiros em suas águas soberanas?</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Passagem pelo mar territorial com o propósito de Atravessar o MT sem penetrar nas águas interiores ou fazer escala em um ancoradouro ou instalação portuária situada fora das águas interiores; Entrar ou sair das águas interiores, ou fazer escala num desses ancoradouros ou instalações portuárias.</t>
+          <t>Nos AVISOS AOS NAVEGANTES (NOTICE TO MARINERS) ou constam das cartas náuticas.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Pág 33</t>
+          <t>Pág 46</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -2377,23 +2377,23 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Dê um exemplo de suspensão temporária do direito de passagem inocente.</t>
+          <t>As regras de navegação no espaço aéreo internacional aplicáveis às aeronaves civis são as previstas em qual convenção?</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Interdição de área marítima para realização de tiro real.</t>
+          <t>Convenção de Chicago de 1944.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Pág 36</t>
+          <t>Pág 47</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
@@ -2405,23 +2405,415 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Defina passagem em Trânsito.</t>
+          <t>Existe uma definição internacionalmente aceita sobre o limite inferior do espaço exterior?</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Exercício da liberdade de navegação e sobrevoo, exclusivamente para fins de trânsito contínuo e rápido pelo estreito entre uma parte do alto-mar ou de uma ZEE e uma outra parte do alto-mar ou uma ZEE</t>
+          <t>Não existe uma definição internacionalmente aceita.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
+          <t>Pág 47</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>De acordo com o DI, o espaço exterior pode ser apropriado por algum Estado?</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Não, o espaço exterior não é sujeito a reclamações de soberania e não pode ser apropriado por nenhum Estado.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Pág 47</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>De acordo com o DI, o que é proibido nos corpos celestes naturais em termos de atividades militares?</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Levantar bases e instalações militares, e conduzir manobras ou testes com armas.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Pág 48</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>O que a legislação dos Estados Unidos (U.S. Commercial Space Launch Competitiveness Act de 2015) admite em relação aos recursos de corpos celestes?</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Admite que os recursos de corpos celestes estejam sujeitos a direito de propriedade.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Pág 48</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Cite um dos quatro principais acordos multilaterais que contêm os princípios legais relativos às atividades desenvolvidas no espaço exterior.</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>O Tratado do Espaço Exterior, de 1967 (ou Acordo de Retorno e Resgate de Astronautas, de 1968, ou Tratado de Responsabilidade, de 1972, ou Tratado de Registro de Objetos Espaciais, de 1975).</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Pág 48</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Um navio de guerra está sujeito às normas de controle de tráfego, controle de alijamento de dejetos, sanitários e de quarentena do Estado costeiro. Os respectivos agentes podem subir a bordo mesmo sem a permissão do Comandante?</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Não, mesmo quando em trânsito por mares territoriais alheios ou ancorados em portos estrangeiros.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Pág 42</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Em que se baseia o fundamento da imunidade do navio de guerra?</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Seu caráter representativo e respeito mútuo entre Estados.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Pág 29</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Quais são os temperamentos ou restrições à imunidade dos navios de guerra?</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Necessidade da observância de leis e regulamentos impostos pelo Estado costeiro para a passagem inocente no mar territorial; Responsabilidade por danos causados em violação à legislação vigente.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Pág 30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Em caso de Descumprimento das normas de DI por parte de um navio de guerra de outro Estado, quais as medidas que podem ser tomadas?</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Emissão de protesto diplomático ou de ordem, para que se retire imediatamente do Mar Territorial do Estado costeiro.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Pág 30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Navios de Estado também gozam de imunidade e extraterritorialidade?</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Sim.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Pág 29</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Nenhum agente de autoridade estrangeira pode subir a bordo sem o consentimento do Comandante, porém caso ele não tenha como comprovar o cumprimento das normas alfandegárias, de imigração ou de quarentena, cite a medida que o Estado pode tomar.</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Determinar deixar imediatamente o território e o espaço aéreo nacionais</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Pág 32</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Navios de Guerra e todas as aeronaves devem solicitar autorização com antecedência para a entrada em águas interiores e espaço aéreo sobrejacente. Cite as duas exceções.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Situação de emergência ou força maior; Quando Linhas de Base retas encerram, como águas interiores, águas que antes se constituíam Mar Territorial ou alto-mar. Nesse caso, será aplicado o direito de Passagem Inocente.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Pág 42</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Defina Passagem Inocente.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Passagem pelo mar territorial com o propósito de Atravessar o MT sem penetrar nas águas interiores ou fazer escala em um ancoradouro ou instalação portuária situada fora das águas interiores; Entrar ou sair das águas interiores, ou fazer escala num desses ancoradouros ou instalações portuárias.</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Pág 33</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Dê um exemplo de suspensão temporária do direito de passagem inocente.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Interdição de área marítima para realização de tiro real.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Pág 36</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Defina passagem em Trânsito.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Exercício da liberdade de navegação e sobrevoo, exclusivamente para fins de trânsito contínuo e rápido pelo estreito entre uma parte do alto-mar ou de uma ZEE e uma outra parte do alto-mar ou uma ZEE</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>Pág 37</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Cap. 2 - Status Internacional e normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
         </is>
       </c>
     </row>
